--- a/Upgrades.xlsx
+++ b/Upgrades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Games\Game dev shit\games\X.Press-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A0CCE3-6CF1-45A6-A88B-3A0574EC3A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B189434C-7177-47BC-AE59-5C93B0AEFCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F82B0465-72F9-4418-9F8A-0E1D2D3C8C85}"/>
   </bookViews>
@@ -576,7 +576,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
